--- a/Arduino-Leonardo/Analysis/Season-of-Birth/data/KeyData.xlsx
+++ b/Arduino-Leonardo/Analysis/Season-of-Birth/data/KeyData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F17C36-F917-497F-B847-9DB139214E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
   <si>
     <t>Category</t>
   </si>
@@ -45,9 +46,6 @@
     <t>white</t>
   </si>
   <si>
-    <t>mixed</t>
-  </si>
-  <si>
     <t>asian</t>
   </si>
   <si>
@@ -61,12 +59,21 @@
   </si>
   <si>
     <t>ethnicGroup</t>
+  </si>
+  <si>
+    <t>mixed-wb</t>
+  </si>
+  <si>
+    <t>mixed-wa</t>
+  </si>
+  <si>
+    <t>mixed-o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,20 +384,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -401,9 +408,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -412,9 +419,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -423,9 +430,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -434,9 +441,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -445,9 +452,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -456,9 +463,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -467,9 +474,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -478,9 +485,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -489,9 +496,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -500,9 +507,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -511,9 +518,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -522,9 +529,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -533,9 +540,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -544,9 +551,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -555,9 +562,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -566,9 +573,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -577,163 +584,163 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>19</v>
